--- a/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-number-days-of-week</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -243,21 +243,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -898,10 +898,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -926,7 +926,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1001,7 +1001,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1104,7 +1104,7 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
@@ -1129,10 +1129,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1206,10 +1206,10 @@
         <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1234,10 +1234,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1312,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
